--- a/日报与周报-叶家俊2018.01.13.xlsx
+++ b/日报与周报-叶家俊2018.01.13.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>时间</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Raspberry nginx与php重新安装配置，已修复以往bug；移植nodejs服务器功能为PHP代码。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进目前的网页更新结构，目的转化为React模式；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进目前的网页更新结构，目的转化为React模式；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找React资料；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +545,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -590,8 +602,12 @@
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -633,8 +649,12 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
